--- a/inst/models/checkimab_large/model.xlsx
+++ b/inst/models/checkimab_large/model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamdahl/Documents/Code/heRomod2/inst/models/checkimab_large/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/checkimab_large/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B6BB09-7148-A347-8E02-1204278B0489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FC4D9A-1654-104C-A818-DA7C5071FD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{F2154858-BAC7-AB46-9308-23215F5D2873}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="264">
   <si>
     <t>timeframe</t>
   </si>
@@ -826,6 +826,12 @@
   </si>
   <si>
     <t>destination</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>outcome</t>
   </si>
 </sst>
 </file>
@@ -2339,12 +2345,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:F305" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A1:F305" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:G305" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A1:G305" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B672616B-5AD7-C04F-85D1-A80CD6C05684}" name="name" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{9359D359-E665-004E-AFAA-ED095E5901BE}" name="display_name" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{81785362-73A1-9448-94BF-3672160AD33A}" name="description" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{A0B8FDDF-B404-F24B-A9BD-693D153C8533}" name="Column1"/>
     <tableColumn id="5" xr3:uid="{C60112EB-A39D-9044-AA87-C45800C17C3E}" name="state"/>
     <tableColumn id="6" xr3:uid="{C72C29CB-D420-7649-999C-B1EA1B70E0F7}" name="destination"/>
     <tableColumn id="4" xr3:uid="{F2BEAA99-68A5-0A43-AAFE-628903802CE7}" name="formula" dataDxfId="10"/>
@@ -2371,9 +2378,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2411,7 +2418,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2517,7 +2524,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2659,7 +2666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9470,10 +9477,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0D78FB-8401-9E4C-9EB5-A7C336F3C948}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9481,11 +9488,12 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="89" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -9496,16 +9504,19 @@
         <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -9516,13 +9527,16 @@
         <v>130</v>
       </c>
       <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -9533,13 +9547,16 @@
         <v>130</v>
       </c>
       <c r="D3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -9550,13 +9567,16 @@
         <v>130</v>
       </c>
       <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -9567,13 +9587,16 @@
         <v>133</v>
       </c>
       <c r="D5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -9584,13 +9607,16 @@
         <v>133</v>
       </c>
       <c r="D6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -9601,13 +9627,16 @@
         <v>133</v>
       </c>
       <c r="D7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -9618,13 +9647,16 @@
         <v>130</v>
       </c>
       <c r="D8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -9635,13 +9667,16 @@
         <v>130</v>
       </c>
       <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -9652,13 +9687,16 @@
         <v>130</v>
       </c>
       <c r="D10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -9669,13 +9707,16 @@
         <v>130</v>
       </c>
       <c r="D11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -9686,13 +9727,16 @@
         <v>130</v>
       </c>
       <c r="D12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -9703,13 +9747,16 @@
         <v>130</v>
       </c>
       <c r="D13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -9720,13 +9767,16 @@
         <v>130</v>
       </c>
       <c r="D14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -9737,13 +9787,16 @@
         <v>130</v>
       </c>
       <c r="D15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -9754,13 +9807,16 @@
         <v>130</v>
       </c>
       <c r="D16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -9771,13 +9827,16 @@
         <v>130</v>
       </c>
       <c r="D17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -9788,13 +9847,16 @@
         <v>130</v>
       </c>
       <c r="D18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -9805,13 +9867,16 @@
         <v>130</v>
       </c>
       <c r="D19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -9822,13 +9887,16 @@
         <v>130</v>
       </c>
       <c r="D20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>164</v>
       </c>
@@ -9839,13 +9907,16 @@
         <v>130</v>
       </c>
       <c r="D21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -9856,13 +9927,16 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>166</v>
       </c>
@@ -9873,13 +9947,16 @@
         <v>130</v>
       </c>
       <c r="D23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -9890,13 +9967,16 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -9907,13 +9987,16 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>169</v>
       </c>
@@ -9924,13 +10007,16 @@
         <v>130</v>
       </c>
       <c r="D26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>170</v>
       </c>
@@ -9941,13 +10027,16 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>171</v>
       </c>
@@ -9958,13 +10047,16 @@
         <v>130</v>
       </c>
       <c r="D28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>172</v>
       </c>
@@ -9975,13 +10067,16 @@
         <v>130</v>
       </c>
       <c r="D29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>173</v>
       </c>
@@ -9992,13 +10087,16 @@
         <v>130</v>
       </c>
       <c r="D30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>174</v>
       </c>
@@ -10009,13 +10107,16 @@
         <v>130</v>
       </c>
       <c r="D31" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>175</v>
       </c>
@@ -10026,13 +10127,16 @@
         <v>130</v>
       </c>
       <c r="D32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>176</v>
       </c>
@@ -10043,13 +10147,16 @@
         <v>130</v>
       </c>
       <c r="D33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>177</v>
       </c>
@@ -10060,13 +10167,16 @@
         <v>130</v>
       </c>
       <c r="D34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E34" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -10077,13 +10187,16 @@
         <v>130</v>
       </c>
       <c r="D35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -10094,13 +10207,16 @@
         <v>130</v>
       </c>
       <c r="D36" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -10111,13 +10227,16 @@
         <v>130</v>
       </c>
       <c r="D37" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>181</v>
       </c>
@@ -10128,13 +10247,16 @@
         <v>130</v>
       </c>
       <c r="D38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>182</v>
       </c>
@@ -10145,13 +10267,16 @@
         <v>130</v>
       </c>
       <c r="D39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -10162,13 +10287,16 @@
         <v>130</v>
       </c>
       <c r="D40" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>184</v>
       </c>
@@ -10179,13 +10307,16 @@
         <v>130</v>
       </c>
       <c r="D41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E41" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>185</v>
       </c>
@@ -10196,13 +10327,16 @@
         <v>130</v>
       </c>
       <c r="D42" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>186</v>
       </c>
@@ -10213,13 +10347,16 @@
         <v>130</v>
       </c>
       <c r="D43" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>187</v>
       </c>
@@ -10230,13 +10367,16 @@
         <v>130</v>
       </c>
       <c r="D44" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>188</v>
       </c>
@@ -10247,13 +10387,16 @@
         <v>130</v>
       </c>
       <c r="D45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>189</v>
       </c>
@@ -10264,13 +10407,16 @@
         <v>130</v>
       </c>
       <c r="D46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>190</v>
       </c>
@@ -10281,13 +10427,16 @@
         <v>130</v>
       </c>
       <c r="D47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>191</v>
       </c>
@@ -10298,13 +10447,16 @@
         <v>130</v>
       </c>
       <c r="D48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E48" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -10315,13 +10467,16 @@
         <v>130</v>
       </c>
       <c r="D49" t="s">
+        <v>263</v>
+      </c>
+      <c r="E49" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -10332,13 +10487,16 @@
         <v>130</v>
       </c>
       <c r="D50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E50" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -10349,13 +10507,16 @@
         <v>130</v>
       </c>
       <c r="D51" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>195</v>
       </c>
@@ -10366,13 +10527,16 @@
         <v>130</v>
       </c>
       <c r="D52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>196</v>
       </c>
@@ -10383,13 +10547,16 @@
         <v>130</v>
       </c>
       <c r="D53" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>197</v>
       </c>
@@ -10400,13 +10567,16 @@
         <v>130</v>
       </c>
       <c r="D54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>198</v>
       </c>
@@ -10417,13 +10587,16 @@
         <v>130</v>
       </c>
       <c r="D55" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>199</v>
       </c>
@@ -10434,13 +10607,16 @@
         <v>130</v>
       </c>
       <c r="D56" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>200</v>
       </c>
@@ -10451,13 +10627,16 @@
         <v>130</v>
       </c>
       <c r="D57" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>201</v>
       </c>
@@ -10468,13 +10647,16 @@
         <v>130</v>
       </c>
       <c r="D58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>202</v>
       </c>
@@ -10485,13 +10667,16 @@
         <v>130</v>
       </c>
       <c r="D59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -10502,13 +10687,16 @@
         <v>130</v>
       </c>
       <c r="D60" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>204</v>
       </c>
@@ -10519,13 +10707,16 @@
         <v>130</v>
       </c>
       <c r="D61" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" t="s">
         <v>30</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>205</v>
       </c>
@@ -10536,13 +10727,16 @@
         <v>130</v>
       </c>
       <c r="D62" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>206</v>
       </c>
@@ -10553,13 +10747,16 @@
         <v>130</v>
       </c>
       <c r="D63" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>207</v>
       </c>
@@ -10570,13 +10767,16 @@
         <v>130</v>
       </c>
       <c r="D64" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -10587,13 +10787,16 @@
         <v>130</v>
       </c>
       <c r="D65" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>209</v>
       </c>
@@ -10604,13 +10807,16 @@
         <v>130</v>
       </c>
       <c r="D66" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>210</v>
       </c>
@@ -10621,13 +10827,16 @@
         <v>130</v>
       </c>
       <c r="D67" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>211</v>
       </c>
@@ -10638,13 +10847,16 @@
         <v>130</v>
       </c>
       <c r="D68" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>212</v>
       </c>
@@ -10655,13 +10867,16 @@
         <v>130</v>
       </c>
       <c r="D69" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>213</v>
       </c>
@@ -10672,13 +10887,16 @@
         <v>130</v>
       </c>
       <c r="D70" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -10689,13 +10907,16 @@
         <v>130</v>
       </c>
       <c r="D71" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -10706,13 +10927,16 @@
         <v>130</v>
       </c>
       <c r="D72" t="s">
+        <v>263</v>
+      </c>
+      <c r="E72" t="s">
         <v>30</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>216</v>
       </c>
@@ -10723,13 +10947,16 @@
         <v>130</v>
       </c>
       <c r="D73" t="s">
+        <v>263</v>
+      </c>
+      <c r="E73" t="s">
         <v>30</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>217</v>
       </c>
@@ -10740,13 +10967,16 @@
         <v>130</v>
       </c>
       <c r="D74" t="s">
+        <v>263</v>
+      </c>
+      <c r="E74" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>218</v>
       </c>
@@ -10757,13 +10987,16 @@
         <v>130</v>
       </c>
       <c r="D75" t="s">
+        <v>263</v>
+      </c>
+      <c r="E75" t="s">
         <v>30</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>219</v>
       </c>
@@ -10774,13 +11007,16 @@
         <v>130</v>
       </c>
       <c r="D76" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" t="s">
         <v>30</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -10791,13 +11027,16 @@
         <v>130</v>
       </c>
       <c r="D77" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" t="s">
         <v>30</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>221</v>
       </c>
@@ -10808,13 +11047,16 @@
         <v>130</v>
       </c>
       <c r="D78" t="s">
+        <v>263</v>
+      </c>
+      <c r="E78" t="s">
         <v>30</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>222</v>
       </c>
@@ -10825,13 +11067,16 @@
         <v>130</v>
       </c>
       <c r="D79" t="s">
+        <v>263</v>
+      </c>
+      <c r="E79" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>223</v>
       </c>
@@ -10842,13 +11087,16 @@
         <v>130</v>
       </c>
       <c r="D80" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>224</v>
       </c>
@@ -10859,13 +11107,16 @@
         <v>130</v>
       </c>
       <c r="D81" t="s">
+        <v>263</v>
+      </c>
+      <c r="E81" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>225</v>
       </c>
@@ -10876,13 +11127,16 @@
         <v>130</v>
       </c>
       <c r="D82" t="s">
+        <v>263</v>
+      </c>
+      <c r="E82" t="s">
         <v>30</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>226</v>
       </c>
@@ -10893,13 +11147,16 @@
         <v>130</v>
       </c>
       <c r="D83" t="s">
+        <v>263</v>
+      </c>
+      <c r="E83" t="s">
         <v>30</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>227</v>
       </c>
@@ -10910,13 +11167,16 @@
         <v>130</v>
       </c>
       <c r="D84" t="s">
+        <v>263</v>
+      </c>
+      <c r="E84" t="s">
         <v>30</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>228</v>
       </c>
@@ -10927,13 +11187,16 @@
         <v>130</v>
       </c>
       <c r="D85" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" t="s">
         <v>30</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>229</v>
       </c>
@@ -10944,13 +11207,16 @@
         <v>130</v>
       </c>
       <c r="D86" t="s">
+        <v>263</v>
+      </c>
+      <c r="E86" t="s">
         <v>30</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>230</v>
       </c>
@@ -10961,13 +11227,16 @@
         <v>130</v>
       </c>
       <c r="D87" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87" t="s">
         <v>30</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>231</v>
       </c>
@@ -10978,13 +11247,16 @@
         <v>130</v>
       </c>
       <c r="D88" t="s">
+        <v>263</v>
+      </c>
+      <c r="E88" t="s">
         <v>30</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>232</v>
       </c>
@@ -10995,13 +11267,16 @@
         <v>130</v>
       </c>
       <c r="D89" t="s">
+        <v>263</v>
+      </c>
+      <c r="E89" t="s">
         <v>30</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>233</v>
       </c>
@@ -11012,13 +11287,16 @@
         <v>130</v>
       </c>
       <c r="D90" t="s">
+        <v>263</v>
+      </c>
+      <c r="E90" t="s">
         <v>30</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>234</v>
       </c>
@@ -11029,13 +11307,16 @@
         <v>130</v>
       </c>
       <c r="D91" t="s">
+        <v>263</v>
+      </c>
+      <c r="E91" t="s">
         <v>30</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>235</v>
       </c>
@@ -11046,13 +11327,16 @@
         <v>130</v>
       </c>
       <c r="D92" t="s">
+        <v>263</v>
+      </c>
+      <c r="E92" t="s">
         <v>30</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>236</v>
       </c>
@@ -11063,13 +11347,16 @@
         <v>130</v>
       </c>
       <c r="D93" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" t="s">
         <v>30</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>237</v>
       </c>
@@ -11080,13 +11367,16 @@
         <v>130</v>
       </c>
       <c r="D94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E94" t="s">
         <v>30</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>238</v>
       </c>
@@ -11097,13 +11387,16 @@
         <v>130</v>
       </c>
       <c r="D95" t="s">
+        <v>263</v>
+      </c>
+      <c r="E95" t="s">
         <v>30</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>239</v>
       </c>
@@ -11114,13 +11407,16 @@
         <v>130</v>
       </c>
       <c r="D96" t="s">
+        <v>263</v>
+      </c>
+      <c r="E96" t="s">
         <v>30</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>240</v>
       </c>
@@ -11131,13 +11427,16 @@
         <v>130</v>
       </c>
       <c r="D97" t="s">
+        <v>263</v>
+      </c>
+      <c r="E97" t="s">
         <v>30</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>241</v>
       </c>
@@ -11148,13 +11447,16 @@
         <v>130</v>
       </c>
       <c r="D98" t="s">
+        <v>263</v>
+      </c>
+      <c r="E98" t="s">
         <v>30</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>242</v>
       </c>
@@ -11165,13 +11467,16 @@
         <v>130</v>
       </c>
       <c r="D99" t="s">
+        <v>263</v>
+      </c>
+      <c r="E99" t="s">
         <v>30</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>243</v>
       </c>
@@ -11182,13 +11487,16 @@
         <v>130</v>
       </c>
       <c r="D100" t="s">
+        <v>263</v>
+      </c>
+      <c r="E100" t="s">
         <v>30</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>244</v>
       </c>
@@ -11199,13 +11507,16 @@
         <v>130</v>
       </c>
       <c r="D101" t="s">
+        <v>263</v>
+      </c>
+      <c r="E101" t="s">
         <v>30</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>245</v>
       </c>
@@ -11216,13 +11527,16 @@
         <v>130</v>
       </c>
       <c r="D102" t="s">
+        <v>263</v>
+      </c>
+      <c r="E102" t="s">
         <v>30</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>246</v>
       </c>
@@ -11233,13 +11547,16 @@
         <v>130</v>
       </c>
       <c r="D103" t="s">
+        <v>263</v>
+      </c>
+      <c r="E103" t="s">
         <v>30</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>247</v>
       </c>
@@ -11250,13 +11567,16 @@
         <v>130</v>
       </c>
       <c r="D104" t="s">
+        <v>263</v>
+      </c>
+      <c r="E104" t="s">
         <v>30</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>248</v>
       </c>
@@ -11267,13 +11587,16 @@
         <v>130</v>
       </c>
       <c r="D105" t="s">
+        <v>263</v>
+      </c>
+      <c r="E105" t="s">
         <v>30</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>249</v>
       </c>
@@ -11284,13 +11607,16 @@
         <v>130</v>
       </c>
       <c r="D106" t="s">
+        <v>263</v>
+      </c>
+      <c r="E106" t="s">
         <v>30</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>250</v>
       </c>
@@ -11301,13 +11627,16 @@
         <v>130</v>
       </c>
       <c r="D107" t="s">
+        <v>263</v>
+      </c>
+      <c r="E107" t="s">
         <v>30</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>251</v>
       </c>
@@ -11318,13 +11647,16 @@
         <v>130</v>
       </c>
       <c r="D108" t="s">
+        <v>263</v>
+      </c>
+      <c r="E108" t="s">
         <v>30</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>252</v>
       </c>
@@ -11335,13 +11667,16 @@
         <v>130</v>
       </c>
       <c r="D109" t="s">
+        <v>263</v>
+      </c>
+      <c r="E109" t="s">
         <v>30</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>253</v>
       </c>
@@ -11352,13 +11687,16 @@
         <v>130</v>
       </c>
       <c r="D110" t="s">
+        <v>263</v>
+      </c>
+      <c r="E110" t="s">
         <v>30</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>254</v>
       </c>
@@ -11369,13 +11707,16 @@
         <v>130</v>
       </c>
       <c r="D111" t="s">
+        <v>263</v>
+      </c>
+      <c r="E111" t="s">
         <v>30</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>255</v>
       </c>
@@ -11386,13 +11727,16 @@
         <v>130</v>
       </c>
       <c r="D112" t="s">
+        <v>263</v>
+      </c>
+      <c r="E112" t="s">
         <v>30</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>256</v>
       </c>
@@ -11403,13 +11747,16 @@
         <v>130</v>
       </c>
       <c r="D113" t="s">
+        <v>263</v>
+      </c>
+      <c r="E113" t="s">
         <v>30</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>257</v>
       </c>
@@ -11420,9 +11767,12 @@
         <v>130</v>
       </c>
       <c r="D114" t="s">
+        <v>263</v>
+      </c>
+      <c r="E114" t="s">
         <v>30</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11692,4 +12042,10 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{2d40fa44-05dd-4301-91b0-81b668a97c30}" enabled="1" method="Standard" siteId="{4a33c544-865e-44a4-836f-bc51800f6c5e}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>